--- a/template.xlsx
+++ b/template.xlsx
@@ -2,21 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
   <sheets>
     <sheet state="hidden" name="C_Hằng" sheetId="1" r:id="rId4"/>
     <sheet state="hidden" name=" Gỗ Veener" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Song lập" sheetId="3" r:id="rId6"/>
     <sheet state="hidden" name="Chỉ tủ bếp dưới" sheetId="4" r:id="rId7"/>
   </sheets>
+  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="142">
   <si>
     <t>A ONE</t>
   </si>
@@ -1444,103 +1442,6 @@
  - Đơn giá trên chưa bao gồm VAT, khách hàng chỉ chịu phí VAT = 10% tổng gía trị hợp đồng khi muốn xuất hóa đơn đỏ.
  - Bảo hành phần gỗ 3 năm, phụ kiện bảo hành 2 năm theo hãng.
  - Khối lượng thực tế tính theo kích thước tại công trình.</t>
-  </si>
-  <si>
-    <t>Modern</t>
-  </si>
-  <si>
-    <t>Khách hàng : long</t>
-  </si>
-  <si>
-    <t>Điện thoại: 0123123123</t>
-  </si>
-  <si>
-    <t>Địa chỉ: ha noi</t>
-  </si>
-  <si>
-    <t>Ngày: 02/08/2023</t>
-  </si>
-  <si>
-    <t>UserSelection(phongCachNoiThat=PhongCachNoiThat{id=1, name='Modern', noiThatList=[NoiThat(id=1, name=Table, hangMucList=[HangMuc(id=1, name=IndoorTable, vatLieuList=[VatLieu(id=1, name=Wood, thongSo=ThongSo(id=1, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50)), VatLieu(id=2, name=Metal, thongSo=ThongSo(id=2, dai=8, rong=6, cao=4, don_vi=cm, don_gia=45)), VatLieu(id=3, name=Plastic, thongSo=ThongSo(id=3, dai=12, rong=7, cao=2, don_vi=cm, don_gia=55))]), HangMuc(id=2, name=IndoorChair, vatLieuList=[VatLieu(id=4, name=Wood, thongSo=ThongSo(id=4, dai=15, rong=5, cao=3, don_vi=cm, don_gia=60)), VatLieu(id=5, name=Metal, thongSo=ThongSo(id=5, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50)), VatLieu(id=6, name=Plastic, thongSo=ThongSo(id=6, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50))])]), NoiThat(id=2, name=Chair, hangMucList=[HangMuc(id=3, name=IndoorBed, vatLieuList=[VatLieu(id=7, name=Wood, thongSo=ThongSo(id=7, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50)), VatLieu(id=8, name=Metal, thongSo=ThongSo(id=8, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50)), VatLieu(id=9, name=Plastic, thongSo=ThongSo(id=9, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50))])])]}, noiThat=NoiThat(id=1, name=Table, hangMucList=[HangMuc(id=1, name=IndoorTable, vatLieuList=[VatLieu(id=1, name=Wood, thongSo=ThongSo(id=1, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50)), VatLieu(id=2, name=Metal, thongSo=ThongSo(id=2, dai=8, rong=6, cao=4, don_vi=cm, don_gia=45)), VatLieu(id=3, name=Plastic, thongSo=ThongSo(id=3, dai=12, rong=7, cao=2, don_vi=cm, don_gia=55))]), HangMuc(id=2, name=IndoorChair, vatLieuList=[VatLieu(id=4, name=Wood, thongSo=ThongSo(id=4, dai=15, rong=5, cao=3, don_vi=cm, don_gia=60)), VatLieu(id=5, name=Metal, thongSo=ThongSo(id=5, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50)), VatLieu(id=6, name=Plastic, thongSo=ThongSo(id=6, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50))])]), hangMuc=HangMuc(id=1, name=IndoorTable, vatLieuList=[VatLieu(id=1, name=Wood, thongSo=ThongSo(id=1, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50)), VatLieu(id=2, name=Metal, thongSo=ThongSo(id=2, dai=8, rong=6, cao=4, don_vi=cm, don_gia=45)), VatLieu(id=3, name=Plastic, thongSo=ThongSo(id=3, dai=12, rong=7, cao=2, don_vi=cm, don_gia=55))]), vatLieu=VatLieu(id=1, name=Wood, thongSo=ThongSo(id=1, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50)), thongSo=ThongSo(id=1, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50))</t>
-  </si>
-  <si>
-    <t>UserSelection(phongCachNoiThat=PhongCachNoiThat{id=1, name='Modern', noiThatList=[NoiThat(id=1, name=Table, hangMucList=[HangMuc(id=1, name=IndoorTable, vatLieuList=[VatLieu(id=1, name=Wood, thongSo=ThongSo(id=1, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50)), VatLieu(id=2, name=Metal, thongSo=ThongSo(id=2, dai=8, rong=6, cao=4, don_vi=cm, don_gia=45)), VatLieu(id=3, name=Plastic, thongSo=ThongSo(id=3, dai=12, rong=7, cao=2, don_vi=cm, don_gia=55))]), HangMuc(id=2, name=IndoorChair, vatLieuList=[VatLieu(id=4, name=Wood, thongSo=ThongSo(id=4, dai=15, rong=5, cao=3, don_vi=cm, don_gia=60)), VatLieu(id=5, name=Metal, thongSo=ThongSo(id=5, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50)), VatLieu(id=6, name=Plastic, thongSo=ThongSo(id=6, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50))])]), NoiThat(id=2, name=Chair, hangMucList=[HangMuc(id=3, name=IndoorBed, vatLieuList=[VatLieu(id=7, name=Wood, thongSo=ThongSo(id=7, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50)), VatLieu(id=8, name=Metal, thongSo=ThongSo(id=8, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50)), VatLieu(id=9, name=Plastic, thongSo=ThongSo(id=9, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50))])])]}, noiThat=NoiThat(id=2, name=Chair, hangMucList=[HangMuc(id=3, name=IndoorBed, vatLieuList=[VatLieu(id=7, name=Wood, thongSo=ThongSo(id=7, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50)), VatLieu(id=8, name=Metal, thongSo=ThongSo(id=8, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50)), VatLieu(id=9, name=Plastic, thongSo=ThongSo(id=9, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50))])]), hangMuc=HangMuc(id=2, name=IndoorChair, vatLieuList=[VatLieu(id=4, name=Wood, thongSo=ThongSo(id=4, dai=15, rong=5, cao=3, don_vi=cm, don_gia=60)), VatLieu(id=5, name=Metal, thongSo=ThongSo(id=5, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50)), VatLieu(id=6, name=Plastic, thongSo=ThongSo(id=6, dai=10, rong=5, cao=3, don_vi=cm, don_gia=50))]), vatLieu=VatLieu(id=2, name=Metal, thongSo=ThongSo(id=2, dai=8, rong=6, cao=4, don_vi=cm, don_gia=45)), thongSo=ThongSo(id=2, dai=8, rong=6, cao=4, don_vi=cm, don_gia=45))</t>
-  </si>
-  <si>
-    <t>EMP ID</t>
-  </si>
-  <si>
-    <t>EMP NAME</t>
-  </si>
-  <si>
-    <t>DESIGNATION</t>
-  </si>
-  <si>
-    <t>Tủ bếp long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Thùng  : MDF chống ẩm an cường , độ dày 18mm </t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,360,000
-</t>
-  </si>
-  <si>
-    <t>Tủ bếp linh</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>850</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,360,000
-</t>
-  </si>
-  <si>
-    <t>Tủ bếp linh1</t>
-  </si>
-  <si>
-    <t>Tủ bếp linh2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00
-</t>
-  </si>
-  <si>
-    <t>2,360,000</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29,055,000</t>
-  </si>
-  <si>
-    <t>3,360,000</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30,055,000</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1452,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="93">
+  <fonts count="35">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1746,282 +1647,6 @@
       <color theme="1"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -2085,7 +1710,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="20">
     <border/>
     <border>
       <left style="thin">
@@ -2244,30 +1869,12 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="156">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2714,166 +2321,6 @@
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="23" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3097,21 +2544,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.57"/>
-    <col min="2" max="2" customWidth="true" width="24.43"/>
-    <col min="3" max="3" customWidth="true" width="50.14"/>
-    <col min="4" max="6" customWidth="true" width="11.43"/>
-    <col min="7" max="7" customWidth="true" width="13.86"/>
-    <col min="8" max="8" customWidth="true" width="20.0"/>
-    <col min="9" max="9" customWidth="true" width="12.86"/>
-    <col min="10" max="10" customWidth="true" width="20.0"/>
-    <col min="11" max="11" customWidth="true" hidden="true" width="37.14"/>
+    <col customWidth="1" min="1" max="1" width="11.57"/>
+    <col customWidth="1" min="2" max="2" width="24.43"/>
+    <col customWidth="1" min="3" max="3" width="50.14"/>
+    <col customWidth="1" min="4" max="6" width="11.43"/>
+    <col customWidth="1" min="7" max="7" width="13.86"/>
+    <col customWidth="1" min="8" max="8" width="20.0"/>
+    <col customWidth="1" min="9" max="9" width="12.86"/>
+    <col customWidth="1" min="10" max="10" width="20.0"/>
+    <col customWidth="1" hidden="1" min="11" max="11" width="37.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3207,24 +2653,61 @@
       <c r="K6" s="18"/>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="223">
-        <v>143</v>
-      </c>
+      <c r="A7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="223">
-        <v>144</v>
-      </c>
+      <c r="A8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="223">
-        <v>145</v>
-      </c>
+      <c r="A9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="223">
-        <v>146</v>
-      </c>
+      <c r="A10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11">
       <c r="A11" s="23" t="s">
@@ -3290,88 +2773,95 @@
       <c r="J13" s="32"/>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="220">
-        <v>142</v>
-      </c>
-      <c r="C14" t="s" s="220">
-        <v>142</v>
-      </c>
-      <c r="D14" t="s" s="220">
-        <v>142</v>
-      </c>
-      <c r="E14" t="s" s="220">
-        <v>142</v>
-      </c>
-      <c r="F14" t="s" s="220">
-        <v>142</v>
-      </c>
-      <c r="G14" t="s" s="220">
-        <v>142</v>
-      </c>
-      <c r="H14" t="s" s="220">
-        <v>142</v>
-      </c>
-      <c r="I14" t="s" s="220">
-        <v>142</v>
-      </c>
+      <c r="A14" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="37">
+        <f>SUM(J15:J19)</f>
+        <v>37896230</v>
+      </c>
+      <c r="K14" s="38"/>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="222">
-        <v>152</v>
-      </c>
-      <c r="C15" t="s" s="222">
-        <v>153</v>
-      </c>
-      <c r="D15" t="s" s="222">
-        <v>154</v>
-      </c>
-      <c r="E15" t="s" s="222">
-        <v>155</v>
-      </c>
-      <c r="F15" t="s" s="222">
-        <v>156</v>
-      </c>
-      <c r="G15" t="s" s="222">
+      <c r="A15" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="39">
+        <f>2880+2819-600-800</f>
+        <v>4299</v>
+      </c>
+      <c r="E15" s="40">
+        <v>600.0</v>
+      </c>
+      <c r="F15" s="39">
+        <v>810.0</v>
+      </c>
+      <c r="G15" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H15" t="s" s="222">
-        <v>167</v>
-      </c>
-      <c r="I15" t="s" s="222">
-        <v>168</v>
-      </c>
-      <c r="J15" t="s" s="222">
-        <v>169</v>
-      </c>
+      <c r="H15" s="43">
+        <v>3250000.0</v>
+      </c>
+      <c r="I15" s="44">
+        <f t="shared" ref="I15:I18" si="1">D15/10^3</f>
+        <v>4.299</v>
+      </c>
+      <c r="J15" s="45">
+        <f t="shared" ref="J15:J19" si="2">I15*H15</f>
+        <v>13971750</v>
+      </c>
+      <c r="K15" s="46"/>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="222">
-        <v>164</v>
-      </c>
-      <c r="C16" t="s" s="222">
-        <v>153</v>
-      </c>
-      <c r="D16" t="s" s="222">
-        <v>159</v>
-      </c>
-      <c r="E16" t="s" s="222">
-        <v>160</v>
-      </c>
-      <c r="F16" t="s" s="222">
-        <v>161</v>
-      </c>
-      <c r="G16" t="s" s="222">
+      <c r="A16" s="39">
+        <v>2.0</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="39">
+        <v>2880.0</v>
+      </c>
+      <c r="E16" s="40">
+        <v>350.0</v>
+      </c>
+      <c r="F16" s="39">
+        <v>750.0</v>
+      </c>
+      <c r="G16" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H16" t="s" s="222">
-        <v>170</v>
-      </c>
-      <c r="I16" t="s" s="222">
-        <v>171</v>
-      </c>
-      <c r="J16" t="s" s="222">
-        <v>172</v>
-      </c>
+      <c r="H16" s="43">
+        <v>2360000.0</v>
+      </c>
+      <c r="I16" s="44">
+        <f t="shared" si="1"/>
+        <v>2.88</v>
+      </c>
+      <c r="J16" s="45">
+        <f t="shared" si="2"/>
+        <v>6796800</v>
+      </c>
+      <c r="K16" s="46"/>
     </row>
     <row r="17">
       <c r="A17" s="39">
@@ -4036,21 +3526,20 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.57"/>
-    <col min="2" max="2" customWidth="true" width="24.43"/>
-    <col min="3" max="3" customWidth="true" width="50.14"/>
-    <col min="4" max="6" customWidth="true" width="11.43"/>
-    <col min="7" max="7" customWidth="true" width="13.86"/>
-    <col min="8" max="8" customWidth="true" width="20.0"/>
-    <col min="9" max="9" customWidth="true" width="12.86"/>
-    <col min="10" max="10" customWidth="true" width="20.0"/>
-    <col min="11" max="11" customWidth="true" hidden="true" width="37.14"/>
+    <col customWidth="1" min="1" max="1" width="11.57"/>
+    <col customWidth="1" min="2" max="2" width="24.43"/>
+    <col customWidth="1" min="3" max="3" width="50.14"/>
+    <col customWidth="1" min="4" max="6" width="11.43"/>
+    <col customWidth="1" min="7" max="7" width="13.86"/>
+    <col customWidth="1" min="8" max="8" width="20.0"/>
+    <col customWidth="1" min="9" max="9" width="12.86"/>
+    <col customWidth="1" min="10" max="10" width="20.0"/>
+    <col customWidth="1" hidden="1" min="11" max="11" width="37.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4966,21 +4455,20 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.57"/>
-    <col min="2" max="2" customWidth="true" width="24.43"/>
-    <col min="3" max="3" customWidth="true" width="42.57"/>
-    <col min="4" max="6" customWidth="true" width="11.43"/>
-    <col min="7" max="7" customWidth="true" width="13.86"/>
-    <col min="8" max="8" customWidth="true" width="20.0"/>
-    <col min="9" max="9" customWidth="true" width="12.86"/>
-    <col min="10" max="10" customWidth="true" width="20.0"/>
-    <col min="11" max="11" customWidth="true" hidden="true" width="37.14"/>
+    <col customWidth="1" min="1" max="1" width="11.57"/>
+    <col customWidth="1" min="2" max="2" width="24.43"/>
+    <col customWidth="1" min="3" max="3" width="42.57"/>
+    <col customWidth="1" min="4" max="6" width="11.43"/>
+    <col customWidth="1" min="7" max="7" width="13.86"/>
+    <col customWidth="1" min="8" max="8" width="20.0"/>
+    <col customWidth="1" min="9" max="9" width="12.86"/>
+    <col customWidth="1" min="10" max="10" width="20.0"/>
+    <col customWidth="1" hidden="1" min="11" max="11" width="37.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5783,22 +5271,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.86"/>
-    <col min="2" max="2" customWidth="true" width="22.29"/>
-    <col min="3" max="3" customWidth="true" width="50.14"/>
-    <col min="4" max="4" customWidth="true" width="10.0"/>
-    <col min="5" max="5" customWidth="true" width="9.86"/>
-    <col min="6" max="6" customWidth="true" width="10.14"/>
-    <col min="7" max="7" customWidth="true" width="13.86"/>
-    <col min="8" max="8" customWidth="true" width="20.0"/>
-    <col min="9" max="9" customWidth="true" width="12.86"/>
-    <col min="10" max="10" customWidth="true" width="20.0"/>
+    <col customWidth="1" min="1" max="1" width="12.86"/>
+    <col customWidth="1" min="2" max="2" width="22.29"/>
+    <col customWidth="1" min="3" max="3" width="50.14"/>
+    <col customWidth="1" min="4" max="4" width="10.0"/>
+    <col customWidth="1" min="5" max="5" width="9.86"/>
+    <col customWidth="1" min="6" max="6" width="10.14"/>
+    <col customWidth="1" min="7" max="7" width="13.86"/>
+    <col customWidth="1" min="8" max="8" width="20.0"/>
+    <col customWidth="1" min="9" max="9" width="12.86"/>
+    <col customWidth="1" min="10" max="10" width="20.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">

--- a/template.xlsx
+++ b/template.xlsx
@@ -2,19 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="hidden" name="C_Hằng" sheetId="1" r:id="rId4"/>
     <sheet state="hidden" name=" Gỗ Veener" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Song lập" sheetId="3" r:id="rId6"/>
     <sheet state="hidden" name="Chỉ tủ bếp dưới" sheetId="4" r:id="rId7"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="148">
   <si>
     <t>A ONE</t>
   </si>
@@ -1442,6 +1444,24 @@
  - Đơn giá trên chưa bao gồm VAT, khách hàng chỉ chịu phí VAT = 10% tổng gía trị hợp đồng khi muốn xuất hóa đơn đỏ.
  - Bảo hành phần gỗ 3 năm, phụ kiện bảo hành 2 năm theo hãng.
  - Khối lượng thực tế tính theo kích thước tại công trình.</t>
+  </si>
+  <si>
+    <t>Khách hàng : long</t>
+  </si>
+  <si>
+    <t>Điện thoại: 0123123123</t>
+  </si>
+  <si>
+    <t>Địa chỉ: ha noi</t>
+  </si>
+  <si>
+    <t>Ngày: 04/08/2023</t>
+  </si>
+  <si>
+    <t>Khách hàng : huy</t>
+  </si>
+  <si>
+    <t>Địa chỉ: hasadasd sadas</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1472,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="38">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1647,6 +1667,21 @@
       <color theme="1"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1874,7 +1909,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="159">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2321,6 +2356,9 @@
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2544,20 +2582,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.57"/>
-    <col customWidth="1" min="2" max="2" width="24.43"/>
-    <col customWidth="1" min="3" max="3" width="50.14"/>
-    <col customWidth="1" min="4" max="6" width="11.43"/>
-    <col customWidth="1" min="7" max="7" width="13.86"/>
-    <col customWidth="1" min="8" max="8" width="20.0"/>
-    <col customWidth="1" min="9" max="9" width="12.86"/>
-    <col customWidth="1" min="10" max="10" width="20.0"/>
-    <col customWidth="1" hidden="1" min="11" max="11" width="37.14"/>
+    <col min="1" max="1" customWidth="true" width="11.57"/>
+    <col min="2" max="2" customWidth="true" width="24.43"/>
+    <col min="3" max="3" customWidth="true" width="50.14"/>
+    <col min="4" max="6" customWidth="true" width="11.43"/>
+    <col min="7" max="7" customWidth="true" width="13.86"/>
+    <col min="8" max="8" customWidth="true" width="20.0"/>
+    <col min="9" max="9" customWidth="true" width="12.86"/>
+    <col min="10" max="10" customWidth="true" width="20.0"/>
+    <col min="11" max="11" customWidth="true" hidden="true" width="37.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2653,61 +2692,24 @@
       <c r="K6" s="18"/>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="20"/>
+      <c r="A7" t="s" s="158">
+        <v>146</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="20"/>
+      <c r="A8" t="s" s="158">
+        <v>143</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20"/>
+      <c r="A9" t="s" s="158">
+        <v>147</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="20"/>
+      <c r="A10" t="s" s="158">
+        <v>145</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="23" t="s">
@@ -3526,20 +3528,21 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.57"/>
-    <col customWidth="1" min="2" max="2" width="24.43"/>
-    <col customWidth="1" min="3" max="3" width="50.14"/>
-    <col customWidth="1" min="4" max="6" width="11.43"/>
-    <col customWidth="1" min="7" max="7" width="13.86"/>
-    <col customWidth="1" min="8" max="8" width="20.0"/>
-    <col customWidth="1" min="9" max="9" width="12.86"/>
-    <col customWidth="1" min="10" max="10" width="20.0"/>
-    <col customWidth="1" hidden="1" min="11" max="11" width="37.14"/>
+    <col min="1" max="1" customWidth="true" width="11.57"/>
+    <col min="2" max="2" customWidth="true" width="24.43"/>
+    <col min="3" max="3" customWidth="true" width="50.14"/>
+    <col min="4" max="6" customWidth="true" width="11.43"/>
+    <col min="7" max="7" customWidth="true" width="13.86"/>
+    <col min="8" max="8" customWidth="true" width="20.0"/>
+    <col min="9" max="9" customWidth="true" width="12.86"/>
+    <col min="10" max="10" customWidth="true" width="20.0"/>
+    <col min="11" max="11" customWidth="true" hidden="true" width="37.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4455,20 +4458,21 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.57"/>
-    <col customWidth="1" min="2" max="2" width="24.43"/>
-    <col customWidth="1" min="3" max="3" width="42.57"/>
-    <col customWidth="1" min="4" max="6" width="11.43"/>
-    <col customWidth="1" min="7" max="7" width="13.86"/>
-    <col customWidth="1" min="8" max="8" width="20.0"/>
-    <col customWidth="1" min="9" max="9" width="12.86"/>
-    <col customWidth="1" min="10" max="10" width="20.0"/>
-    <col customWidth="1" hidden="1" min="11" max="11" width="37.14"/>
+    <col min="1" max="1" customWidth="true" width="11.57"/>
+    <col min="2" max="2" customWidth="true" width="24.43"/>
+    <col min="3" max="3" customWidth="true" width="42.57"/>
+    <col min="4" max="6" customWidth="true" width="11.43"/>
+    <col min="7" max="7" customWidth="true" width="13.86"/>
+    <col min="8" max="8" customWidth="true" width="20.0"/>
+    <col min="9" max="9" customWidth="true" width="12.86"/>
+    <col min="10" max="10" customWidth="true" width="20.0"/>
+    <col min="11" max="11" customWidth="true" hidden="true" width="37.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5271,21 +5275,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.86"/>
-    <col customWidth="1" min="2" max="2" width="22.29"/>
-    <col customWidth="1" min="3" max="3" width="50.14"/>
-    <col customWidth="1" min="4" max="4" width="10.0"/>
-    <col customWidth="1" min="5" max="5" width="9.86"/>
-    <col customWidth="1" min="6" max="6" width="10.14"/>
-    <col customWidth="1" min="7" max="7" width="13.86"/>
-    <col customWidth="1" min="8" max="8" width="20.0"/>
-    <col customWidth="1" min="9" max="9" width="12.86"/>
-    <col customWidth="1" min="10" max="10" width="20.0"/>
+    <col min="1" max="1" customWidth="true" width="12.86"/>
+    <col min="2" max="2" customWidth="true" width="22.29"/>
+    <col min="3" max="3" customWidth="true" width="50.14"/>
+    <col min="4" max="4" customWidth="true" width="10.0"/>
+    <col min="5" max="5" customWidth="true" width="9.86"/>
+    <col min="6" max="6" customWidth="true" width="10.14"/>
+    <col min="7" max="7" customWidth="true" width="13.86"/>
+    <col min="8" max="8" customWidth="true" width="20.0"/>
+    <col min="9" max="9" customWidth="true" width="12.86"/>
+    <col min="10" max="10" customWidth="true" width="20.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">

--- a/template.xlsx
+++ b/template.xlsx
@@ -23,7 +23,107 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="128">
+  <si>
+    <t xml:space="preserve">${companyLogo}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${tencongty}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${diaChiVanPhong}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${diaChiNhaXuong}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${soDienThoai}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${email}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Báo Giá Nội Thất</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tên hạng mục</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi tiết</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kích thước</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đơn vị tính</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đơn giá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số lượng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thành tiền</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghi chú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dài</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rộng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discount A.Tâm GT 3% còn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đặt cọc thiết kế 15% giá trị HĐ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạm ứng lần 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặt cọc thi công 40% giá trị HĐ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạm ứng lần 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặt cọc 35% giá trị HĐ khi hàng đến công trình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạm ứng lần 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiết kế căn song lập 2.88*4.4= 13m2*160K/m2=2tr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nghiệm thu, Quyết toán</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thanh toán  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chú thích:
+ - Báo giá đã bao gồm vận chuyển nội thành, lắp đặt, phí đo đạc thiết kế.
+ - Đơn giá trên chưa bao gồm VAT, khách hàng chỉ chịu phí VAT = 10% tổng gía trị hợp đồng khi muốn xuất hóa đơn đỏ.
+ - Bảo hành phần gỗ 2 năm, phụ kiện bảo hành 2 năm theo hãng.
+ - Khối lượng thực tế tính theo kích thước tại công trình.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bên A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bên B</t>
+  </si>
   <si>
     <t xml:space="preserve">A ONE</t>
   </si>
@@ -123,113 +223,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Báo Giá Nội Thất</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khách hàng : long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Điện thoại: 0123123123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Địa chỉ: ha noi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày: 13/08/2023</t>
+    <t xml:space="preserve">Khách hàng : Thu Hằng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điện thoại: 0904242121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Địa chỉ : Căn 3A.11 Khai Sơn Hill - Ngọc thuỵ-long biên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày: 19/11/2022</t>
   </si>
   <si>
     <t xml:space="preserve">Sản phẩm:  Tủ bếp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tên hạng mục</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chi tiết</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kích thước</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đơn vị tính</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đơn giá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Số lượng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thành tiền</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghi chú</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dài</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rộng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discount A.Tâm GT 3% còn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Đặt cọc thiết kế 15% giá trị HĐ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tạm ứng lần 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đặt cọc thi công 40% giá trị HĐ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tạm ứng lần 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đặt cọc 35% giá trị HĐ khi hàng đến công trình</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tạm ứng lần 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thiết kế căn song lập 2.88*4.4= 13m2*160K/m2=2tr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nghiệm thu, Quyết toán</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thanh toán  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chú thích:
- - Báo giá đã bao gồm vận chuyển nội thành, lắp đặt, phí đo đạc thiết kế.
- - Đơn giá trên chưa bao gồm VAT, khách hàng chỉ chịu phí VAT = 10% tổng gía trị hợp đồng khi muốn xuất hóa đơn đỏ.
- - Bảo hành phần gỗ 2 năm, phụ kiện bảo hành 2 năm theo hãng.
- - Khối lượng thực tế tính theo kích thước tại công trình.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bên A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bên B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khách hàng : Thu Hằng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Điện thoại: 0904242121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Địa chỉ : Căn 3A.11 Khai Sơn Hill - Ngọc thuỵ-long biên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày: 19/11/2022</t>
   </si>
   <si>
     <t xml:space="preserve">I</t>
@@ -746,48 +752,6 @@
  - Bảo hành phần gỗ 3 năm, phụ kiện bảo hành 2 năm theo hãng.
  - Khối lượng thực tế tính theo kích thước tại công trình.</t>
   </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>IndoorTable</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Plastic</t>
-  </si>
-  <si>
-    <t>IndoorChair</t>
-  </si>
-  <si>
-    <t>Chair</t>
-  </si>
-  <si>
-    <t>IndoorBed</t>
-  </si>
-  <si>
-    <t>Bed</t>
-  </si>
-  <si>
-    <t>OutdoorTable</t>
-  </si>
-  <si>
-    <t>Khách hàng : long</t>
-  </si>
-  <si>
-    <t>Điện thoại: 0123123123</t>
-  </si>
-  <si>
-    <t>Địa chỉ: ha noi</t>
-  </si>
-  <si>
-    <t>Ngày: 13/08/2023</t>
-  </si>
 </sst>
 </file>
 
@@ -801,7 +765,7 @@
     <numFmt numFmtId="168" formatCode="0.00"/>
     <numFmt numFmtId="169" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -826,7 +790,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="48"/>
+      <sz val="9"/>
       <color rgb="FF2F5496"/>
       <name val="Trebuchet MS"/>
       <family val="0"/>
@@ -866,15 +830,31 @@
     <font>
       <b val="true"/>
       <sz val="13"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Times New Roman&quot;"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
-      <sz val="13"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Times New Roman"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Times New Roman&quot;"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Times New Roman&quot;"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -889,6 +869,13 @@
       <b val="true"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0C343D"/>
       <name val="Times New Roman"/>
       <family val="0"/>
       <charset val="1"/>
@@ -943,32 +930,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Times New Roman&quot;"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Times New Roman&quot;"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Times New Roman&quot;"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0C343D"/>
-      <name val="Times New Roman"/>
+      <sz val="48"/>
+      <color rgb="FF2F5496"/>
+      <name val="Trebuchet MS"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -1039,16 +1004,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1071,14 +1026,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD0E0E3"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFF3F3F3"/>
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1106,7 +1061,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1137,13 +1092,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -1154,6 +1102,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1184,24 +1139,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1228,7 +1165,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="112">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1261,19 +1198,191 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1281,79 +1390,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1361,155 +1410,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1521,7 +1462,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1533,7 +1474,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1553,7 +1494,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1565,7 +1506,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1577,7 +1518,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1601,23 +1542,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1625,11 +1566,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1637,15 +1578,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1665,22 +1606,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1761,20 +1694,20 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="11.57" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="24.41" collapsed="false" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="50.14" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="6" customWidth="true" hidden="false" style="0" width="11.43" collapsed="false" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="13.86" collapsed="false" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="19.99" collapsed="false" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="0" width="12.86" collapsed="false" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="0" width="19.99" collapsed="false" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="true" style="0" width="37.14" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="37.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1854,7 +1787,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1869,347 +1802,542 @@
       <c r="J6" s="6"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="113">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="113">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="113">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="113">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+    <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+      <c r="H12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="I12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="K12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="F13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="19"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="19"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="19"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="19"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="19"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="19"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="19"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="19"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="19"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="19"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="19"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14">
-      <c r="B14" t="s" s="112">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16">
-      <c r="C16" t="s" s="0">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="K17" s="18"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" t="s" s="0">
-        <v>131</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22">
-      <c r="B22" t="s" s="112">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" t="s" s="0">
-        <v>133</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="K25" s="18"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K26" s="18"/>
-    </row>
-    <row r="27">
-      <c r="B27" t="s" s="112">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" t="s" s="0">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K29" s="18"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K30" s="18"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K31" s="18"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K32" s="18"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="21" t="n">
+      <c r="I33" s="39"/>
+      <c r="J33" s="40" t="n">
         <f aca="false">J32*97/100</f>
         <v>0</v>
       </c>
-      <c r="K33" s="22"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="n">
+      <c r="K33" s="41"/>
+    </row>
+    <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="44"/>
+      <c r="J34" s="45" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="K34" s="46"/>
+    </row>
+    <row r="35" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="44"/>
+      <c r="J35" s="45" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="K35" s="47"/>
+    </row>
+    <row r="36" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25" t="s">
+      <c r="I36" s="44"/>
+      <c r="J36" s="45" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="K36" s="46"/>
+    </row>
+    <row r="37" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="42"/>
+      <c r="B37" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="K34" s="27"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B35" s="24" t="s">
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="45" t="n">
+        <v>-2000000</v>
+      </c>
+      <c r="K37" s="46"/>
+    </row>
+    <row r="38" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="42" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25" t="s">
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="25"/>
-      <c r="J35" s="26" t="n">
-        <v>22000000</v>
-      </c>
-      <c r="K35" s="28"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="25"/>
-      <c r="J36" s="26" t="n">
-        <v>22000000</v>
-      </c>
-      <c r="K36" s="27"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23"/>
-      <c r="B37" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="26" t="n">
-        <v>-2000000</v>
-      </c>
-      <c r="K37" s="27"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="26" t="n">
+      <c r="I38" s="44"/>
+      <c r="J38" s="45" t="n">
         <f aca="false">J33-J34-J35-J36-J37</f>
         <v>-51000000</v>
       </c>
-      <c r="K38" s="30"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="K39" s="33"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="H41" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I41" s="34"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
+      <c r="K38" s="49"/>
+    </row>
+    <row r="39" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="51"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+    </row>
+    <row r="41" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" s="52"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="50">
     <mergeCell ref="A1:B5"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C2:J2"/>
@@ -2217,10 +2345,11 @@
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
@@ -2230,6 +2359,20 @@
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="H32:I32"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="B34:G34"/>
@@ -2242,7 +2385,7 @@
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A39:J39"/>
     <mergeCell ref="A40:C42"/>
     <mergeCell ref="H41:I41"/>
   </mergeCells>
@@ -2267,26 +2410,26 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="11.57" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="24.41" collapsed="false" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="50.14" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="6" customWidth="true" hidden="false" style="0" width="11.43" collapsed="false" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="13.86" collapsed="false" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="19.99" collapsed="false" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="0" width="12.86" collapsed="false" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="0" width="19.99" collapsed="false" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="true" style="0" width="37.14" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="37.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
+      <c r="A1" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="54"/>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -2298,10 +2441,10 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2313,10 +2456,10 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2328,10 +2471,10 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2343,10 +2486,10 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -2374,775 +2517,775 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="11"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="11"/>
+      <c r="A9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="58"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+      <c r="H12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="I12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="K12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="F13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="17"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40" t="n">
+      <c r="A14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17" t="n">
         <f aca="false">SUM(J15:J18)</f>
         <v>69645100</v>
       </c>
-      <c r="K14" s="41"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="42" t="n">
+      <c r="A15" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="42" t="n">
+      <c r="B15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="19" t="n">
         <f aca="false">2505*2+3200</f>
         <v>8210</v>
       </c>
-      <c r="E15" s="42" t="n">
+      <c r="E15" s="19" t="n">
         <v>600</v>
       </c>
-      <c r="F15" s="42" t="n">
+      <c r="F15" s="19" t="n">
         <v>810</v>
       </c>
-      <c r="G15" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="45" t="n">
+      <c r="G15" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="22" t="n">
         <v>3750000</v>
       </c>
-      <c r="I15" s="46" t="n">
+      <c r="I15" s="23" t="n">
         <f aca="false">D15/10^3</f>
         <v>8.21</v>
       </c>
-      <c r="J15" s="18" t="n">
+      <c r="J15" s="24" t="n">
         <f aca="false">I15*H15</f>
         <v>30787500</v>
       </c>
-      <c r="K15" s="18"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="42" t="n">
+      <c r="A16" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="42" t="n">
+      <c r="B16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="19" t="n">
         <f aca="false">D15+250-2050</f>
         <v>6410</v>
       </c>
-      <c r="E16" s="42" t="n">
+      <c r="E16" s="19" t="n">
         <v>350</v>
       </c>
-      <c r="F16" s="42" t="n">
+      <c r="F16" s="19" t="n">
         <v>800</v>
       </c>
-      <c r="G16" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="45" t="n">
+      <c r="G16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="22" t="n">
         <v>2860000</v>
       </c>
-      <c r="I16" s="46" t="n">
+      <c r="I16" s="23" t="n">
         <f aca="false">D16/10^3</f>
         <v>6.41</v>
       </c>
-      <c r="J16" s="18" t="n">
+      <c r="J16" s="24" t="n">
         <f aca="false">I16*H16</f>
         <v>18332600</v>
       </c>
-      <c r="K16" s="18"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="42" t="n">
+      <c r="A17" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="42" t="n">
+      <c r="B17" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="19" t="n">
         <f aca="false">D16</f>
         <v>6410</v>
       </c>
-      <c r="E17" s="42" t="n">
+      <c r="E17" s="19" t="n">
         <v>350</v>
       </c>
-      <c r="F17" s="42" t="n">
+      <c r="F17" s="19" t="n">
         <f aca="false">2815-810-800-600</f>
         <v>605</v>
       </c>
-      <c r="G17" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="45" t="n">
+      <c r="G17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="22" t="n">
         <v>2500000</v>
       </c>
-      <c r="I17" s="46" t="n">
+      <c r="I17" s="23" t="n">
         <f aca="false">D17/10^3</f>
         <v>6.41</v>
       </c>
-      <c r="J17" s="18" t="n">
+      <c r="J17" s="24" t="n">
         <f aca="false">I17*H17</f>
         <v>16025000</v>
       </c>
-      <c r="K17" s="18"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="42" t="n">
+      <c r="A18" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="B18" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="42" t="n">
+      <c r="B18" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="19" t="n">
         <v>1200</v>
       </c>
-      <c r="E18" s="42" t="n">
+      <c r="E18" s="19" t="n">
         <v>700</v>
       </c>
-      <c r="F18" s="42" t="n">
+      <c r="F18" s="19" t="n">
         <v>870</v>
       </c>
-      <c r="G18" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="45" t="n">
+      <c r="G18" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="22" t="n">
         <f aca="false">H15</f>
         <v>3750000</v>
       </c>
-      <c r="I18" s="46" t="n">
+      <c r="I18" s="23" t="n">
         <f aca="false">D18/10^3</f>
         <v>1.2</v>
       </c>
-      <c r="J18" s="18" t="n">
+      <c r="J18" s="24" t="n">
         <f aca="false">I18*H18</f>
         <v>4500000</v>
       </c>
-      <c r="K18" s="18"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="42"/>
-      <c r="B19" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="47" t="n">
+      <c r="A19" s="19"/>
+      <c r="B19" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26" t="n">
         <f aca="false">SUM(J20:J30)</f>
         <v>21425000</v>
       </c>
-      <c r="K19" s="18"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="42" t="n">
+      <c r="A20" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="B20" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44" t="s">
+      <c r="B20" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="50" t="n">
+      <c r="C20" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="29" t="n">
         <v>550000</v>
       </c>
-      <c r="I20" s="51" t="n">
+      <c r="I20" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="J20" s="18" t="n">
+      <c r="J20" s="24" t="n">
         <f aca="false">I20*H20</f>
         <v>1100000</v>
       </c>
-      <c r="K20" s="18"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="42" t="n">
+      <c r="A21" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="50" t="n">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="29" t="n">
         <v>450000</v>
       </c>
-      <c r="I21" s="51" t="n">
+      <c r="I21" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="J21" s="18" t="n">
+      <c r="J21" s="24" t="n">
         <f aca="false">I21*H21</f>
         <v>1350000</v>
       </c>
-      <c r="K21" s="18"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="42" t="n">
+      <c r="A22" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="50" t="n">
+      <c r="H22" s="29" t="n">
         <v>1705000</v>
       </c>
-      <c r="I22" s="51" t="n">
+      <c r="I22" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="J22" s="18" t="n">
+      <c r="J22" s="24" t="n">
         <f aca="false">I22*H22</f>
         <v>3410000</v>
       </c>
-      <c r="K22" s="18"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="42" t="n">
+      <c r="A23" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="B23" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="53" t="n">
+      <c r="B23" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="32" t="n">
         <v>1900000</v>
       </c>
-      <c r="I23" s="51" t="n">
+      <c r="I23" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="18" t="n">
+      <c r="J23" s="24" t="n">
         <f aca="false">I23*H23</f>
         <v>1900000</v>
       </c>
-      <c r="K23" s="18"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="42" t="n">
+      <c r="A24" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="B24" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="53" t="n">
+      <c r="B24" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="32" t="n">
         <v>1900000</v>
       </c>
-      <c r="I24" s="51" t="n">
+      <c r="I24" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="J24" s="18" t="n">
+      <c r="J24" s="24" t="n">
         <f aca="false">I24*H24</f>
         <v>1900000</v>
       </c>
-      <c r="K24" s="18"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="42" t="n">
+      <c r="A25" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="B25" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="54" t="n">
+      <c r="B25" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="33" t="n">
         <v>5885000</v>
       </c>
-      <c r="I25" s="51" t="n">
+      <c r="I25" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="J25" s="18" t="n">
+      <c r="J25" s="24" t="n">
         <f aca="false">I25*H25</f>
         <v>5885000</v>
       </c>
-      <c r="K25" s="18"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="42" t="n">
+      <c r="A26" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="B26" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52" t="s">
+      <c r="B26" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="53" t="n">
+      <c r="C26" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="32" t="n">
         <v>880000</v>
       </c>
-      <c r="I26" s="51" t="n">
+      <c r="I26" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="J26" s="18" t="n">
+      <c r="J26" s="24" t="n">
         <f aca="false">I26*H26</f>
         <v>880000</v>
       </c>
-      <c r="K26" s="18"/>
+      <c r="K26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="42" t="n">
+      <c r="A27" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="B27" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44" t="s">
+      <c r="B27" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="54" t="n">
+      <c r="C27" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="46" t="n">
+      <c r="I27" s="23" t="n">
         <v>48</v>
       </c>
-      <c r="J27" s="18" t="n">
+      <c r="J27" s="24" t="n">
         <f aca="false">I27*H27</f>
         <v>0</v>
       </c>
-      <c r="K27" s="18"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="42" t="n">
+      <c r="A28" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="B28" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="42" t="s">
+      <c r="B28" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="54" t="n">
+      <c r="C28" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="51" t="n">
+      <c r="I28" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="J28" s="18" t="n">
+      <c r="J28" s="24" t="n">
         <f aca="false">I28*H28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="18"/>
+      <c r="K28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="42" t="n">
+      <c r="A29" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="B29" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="54" t="n">
+      <c r="B29" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="46" t="n">
+      <c r="I29" s="23" t="n">
         <v>16</v>
       </c>
-      <c r="J29" s="18" t="n">
+      <c r="J29" s="24" t="n">
         <f aca="false">I29*H29</f>
         <v>0</v>
       </c>
-      <c r="K29" s="18"/>
+      <c r="K29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="42" t="n">
+      <c r="A30" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="B30" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="55" t="n">
+      <c r="B30" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="34" t="n">
         <v>100000</v>
       </c>
-      <c r="I30" s="56" t="n">
+      <c r="I30" s="35" t="n">
         <v>50</v>
       </c>
-      <c r="J30" s="18" t="n">
+      <c r="J30" s="24" t="n">
         <f aca="false">I30*H30</f>
         <v>5000000</v>
       </c>
-      <c r="K30" s="18"/>
+      <c r="K30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="42"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" s="59"/>
-      <c r="J31" s="47" t="n">
+      <c r="A31" s="19"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="38"/>
+      <c r="J31" s="26" t="n">
         <f aca="false">SUM(J19+J14)</f>
         <v>91070100</v>
       </c>
-      <c r="K31" s="18"/>
+      <c r="K31" s="24"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="21" t="n">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40" t="n">
         <f aca="false">J31*97/100</f>
         <v>88337997</v>
       </c>
-      <c r="K32" s="22"/>
+      <c r="K32" s="41"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23" t="n">
+      <c r="A33" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="44"/>
+      <c r="J33" s="45" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="K33" s="46"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="44"/>
+      <c r="J34" s="45" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="K34" s="47"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26" t="n">
-        <v>13000000</v>
-      </c>
-      <c r="K33" s="27"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B34" s="24" t="s">
+      <c r="I35" s="44"/>
+      <c r="J35" s="45" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="K35" s="46"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="42" t="n">
+        <v>4</v>
+      </c>
+      <c r="B36" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25" t="s">
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26" t="n">
-        <v>35000000</v>
-      </c>
-      <c r="K34" s="28"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="25"/>
-      <c r="J35" s="26" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="K35" s="27"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I36" s="25"/>
-      <c r="J36" s="26" t="n">
+      <c r="I36" s="44"/>
+      <c r="J36" s="45" t="n">
         <f aca="false">J32-J33-J34-J35</f>
         <v>10337997</v>
       </c>
-      <c r="K36" s="30"/>
+      <c r="K36" s="49"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="K37" s="33"/>
+      <c r="A37" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="K37" s="51"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
+      <c r="A38" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="H39" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I39" s="34"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="H39" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="52"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -3215,26 +3358,26 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="11.57" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="24.41" collapsed="false" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="42.57" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="6" customWidth="true" hidden="false" style="0" width="11.43" collapsed="false" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="13.86" collapsed="false" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="19.99" collapsed="false" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="0" width="12.86" collapsed="false" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="0" width="19.99" collapsed="false" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="true" style="0" width="37.14" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="37.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
+      <c r="A1" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="54"/>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -3246,10 +3389,10 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -3261,10 +3404,10 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3276,10 +3419,10 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3291,10 +3434,10 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -3322,667 +3465,667 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="11"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="11"/>
+      <c r="A9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="58"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+      <c r="H12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="I12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="K12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="F13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="17"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="47" t="n">
+      <c r="A14" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="26" t="n">
         <f aca="false">SUM(J15:J18)</f>
         <v>65733400</v>
       </c>
-      <c r="K14" s="41"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="42" t="n">
+      <c r="A15" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="42" t="n">
+      <c r="B15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="19" t="n">
         <f aca="false">2900+2850+4390-1200</f>
         <v>8940</v>
       </c>
-      <c r="E15" s="42" t="n">
+      <c r="E15" s="19" t="n">
         <v>600</v>
       </c>
-      <c r="F15" s="42" t="n">
+      <c r="F15" s="19" t="n">
         <v>810</v>
       </c>
-      <c r="G15" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="45" t="n">
+      <c r="G15" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="22" t="n">
         <v>3250000</v>
       </c>
-      <c r="I15" s="46" t="n">
+      <c r="I15" s="23" t="n">
         <f aca="false">D15/10^3</f>
         <v>8.94</v>
       </c>
-      <c r="J15" s="18" t="n">
+      <c r="J15" s="24" t="n">
         <f aca="false">I15*H15</f>
         <v>29055000</v>
       </c>
-      <c r="K15" s="18"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="42" t="n">
+      <c r="A16" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="42" t="n">
+      <c r="B16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="19" t="n">
         <f aca="false">2900+4390-350</f>
         <v>6940</v>
       </c>
-      <c r="E16" s="42" t="n">
+      <c r="E16" s="19" t="n">
         <v>350</v>
       </c>
-      <c r="F16" s="42" t="n">
+      <c r="F16" s="19" t="n">
         <v>800</v>
       </c>
-      <c r="G16" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="45" t="n">
+      <c r="G16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="22" t="n">
         <v>2360000</v>
       </c>
-      <c r="I16" s="46" t="n">
+      <c r="I16" s="23" t="n">
         <f aca="false">D16/10^3</f>
         <v>6.94</v>
       </c>
-      <c r="J16" s="18" t="n">
+      <c r="J16" s="24" t="n">
         <f aca="false">I16*H16</f>
         <v>16378400</v>
       </c>
-      <c r="K16" s="18"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="42" t="n">
+      <c r="A17" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="42" t="n">
+      <c r="B17" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="19" t="n">
         <f aca="false">D16</f>
         <v>6940</v>
       </c>
-      <c r="E17" s="42" t="n">
+      <c r="E17" s="19" t="n">
         <v>350</v>
       </c>
-      <c r="F17" s="42" t="n">
+      <c r="F17" s="19" t="n">
         <f aca="false">2815-810-800-600</f>
         <v>605</v>
       </c>
-      <c r="G17" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="45" t="n">
+      <c r="G17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="22" t="n">
         <v>2000000</v>
       </c>
-      <c r="I17" s="46" t="n">
+      <c r="I17" s="23" t="n">
         <f aca="false">D17/10^3</f>
         <v>6.94</v>
       </c>
-      <c r="J17" s="18" t="n">
+      <c r="J17" s="24" t="n">
         <f aca="false">I17*H17</f>
         <v>13880000</v>
       </c>
-      <c r="K17" s="18"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="42" t="n">
+      <c r="A18" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="B18" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="42" t="n">
+      <c r="B18" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="19" t="n">
         <v>1200</v>
       </c>
-      <c r="E18" s="42" t="n">
+      <c r="E18" s="19" t="n">
         <v>700</v>
       </c>
-      <c r="F18" s="42" t="n">
+      <c r="F18" s="19" t="n">
         <v>870</v>
       </c>
-      <c r="G18" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="45" t="n">
+      <c r="G18" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="22" t="n">
         <v>5350000</v>
       </c>
-      <c r="I18" s="46" t="n">
+      <c r="I18" s="23" t="n">
         <f aca="false">D18/10^3</f>
         <v>1.2</v>
       </c>
-      <c r="J18" s="18" t="n">
+      <c r="J18" s="24" t="n">
         <f aca="false">I18*H18</f>
         <v>6420000</v>
       </c>
-      <c r="K18" s="18"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="47" t="n">
+      <c r="A19" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26" t="n">
         <f aca="false">SUM(J20:J26)</f>
         <v>16875000</v>
       </c>
-      <c r="K19" s="18"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="42" t="n">
+      <c r="A20" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="B20" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44" t="s">
+      <c r="B20" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="54" t="n">
+      <c r="C20" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="33" t="n">
         <v>1815000</v>
       </c>
-      <c r="I20" s="51" t="n">
+      <c r="I20" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="18" t="n">
+      <c r="J20" s="24" t="n">
         <f aca="false">I20*H20</f>
         <v>1815000</v>
       </c>
-      <c r="K20" s="18"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="42" t="n">
+      <c r="A21" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="B21" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="54" t="n">
+      <c r="B21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="33" t="n">
         <v>1815000</v>
       </c>
-      <c r="I21" s="51" t="n">
+      <c r="I21" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="J21" s="18" t="n">
+      <c r="J21" s="24" t="n">
         <f aca="false">I21*H21</f>
         <v>1815000</v>
       </c>
-      <c r="K21" s="18"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="42" t="n">
+      <c r="A22" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="B22" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44" t="s">
+      <c r="B22" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="54" t="n">
+      <c r="C22" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="33" t="n">
         <v>50000</v>
       </c>
-      <c r="I22" s="46" t="n">
+      <c r="I22" s="23" t="n">
         <f aca="false">32*3</f>
         <v>96</v>
       </c>
-      <c r="J22" s="18" t="n">
+      <c r="J22" s="24" t="n">
         <f aca="false">I22*H22</f>
         <v>4800000</v>
       </c>
-      <c r="K22" s="18"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="42" t="n">
+      <c r="A23" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="B23" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="42" t="s">
+      <c r="B23" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="54" t="n">
+      <c r="C23" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="33" t="n">
         <v>195000</v>
       </c>
-      <c r="I23" s="51" t="n">
+      <c r="I23" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="J23" s="18" t="n">
+      <c r="J23" s="24" t="n">
         <f aca="false">I23*H23</f>
         <v>1365000</v>
       </c>
-      <c r="K23" s="18"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="42" t="n">
+      <c r="A24" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="B24" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="54" t="n">
+      <c r="B24" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="33" t="n">
         <v>120000</v>
       </c>
-      <c r="I24" s="46" t="n">
+      <c r="I24" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="J24" s="18" t="n">
+      <c r="J24" s="24" t="n">
         <f aca="false">I24*H24</f>
         <v>1680000</v>
       </c>
-      <c r="K24" s="18"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="42" t="n">
+      <c r="A25" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="B25" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="63" t="n">
+      <c r="B25" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="64" t="n">
         <v>100000</v>
       </c>
-      <c r="I25" s="64" t="n">
+      <c r="I25" s="65" t="n">
         <v>43</v>
       </c>
-      <c r="J25" s="65" t="n">
+      <c r="J25" s="66" t="n">
         <f aca="false">I25*H25</f>
         <v>4300000</v>
       </c>
-      <c r="K25" s="18"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="42" t="n">
+      <c r="A26" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="B26" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="55" t="n">
+      <c r="B26" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="34" t="n">
         <v>550000</v>
       </c>
-      <c r="I26" s="56" t="n">
+      <c r="I26" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="J26" s="18" t="n">
+      <c r="J26" s="24" t="n">
         <f aca="false">I26*H26</f>
         <v>1100000</v>
       </c>
-      <c r="K26" s="67"/>
+      <c r="K26" s="68"/>
     </row>
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="42"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="59"/>
-      <c r="J27" s="47" t="n">
+      <c r="A27" s="19"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="38"/>
+      <c r="J27" s="26" t="n">
         <f aca="false">SUM(J19+J14)</f>
         <v>82608400</v>
       </c>
-      <c r="K27" s="18"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="70"/>
-      <c r="B28" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="21" t="n">
+      <c r="A28" s="71"/>
+      <c r="B28" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40" t="n">
         <f aca="false">J14*97/100+J19*95/100</f>
         <v>79792648</v>
       </c>
-      <c r="K28" s="22"/>
+      <c r="K28" s="41"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23" t="n">
+      <c r="A29" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26" t="n">
+      <c r="B29" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45" t="n">
         <v>5000000</v>
       </c>
-      <c r="K29" s="27"/>
+      <c r="K29" s="46"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23" t="n">
+      <c r="A30" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="44"/>
+      <c r="J30" s="45" t="n">
+        <v>32000000</v>
+      </c>
+      <c r="K30" s="47"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="K31" s="46"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="42" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25" t="s">
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26" t="n">
-        <v>32000000</v>
-      </c>
-      <c r="K30" s="28"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="K31" s="27"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26" t="n">
+      <c r="I32" s="44"/>
+      <c r="J32" s="45" t="n">
         <f aca="false">J28-J29-J30-J31</f>
         <v>12792648</v>
       </c>
-      <c r="K32" s="30"/>
+      <c r="K32" s="49"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="K33" s="33"/>
+      <c r="A33" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="K33" s="51"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
+      <c r="A34" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="H35" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I35" s="34"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="H35" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="52"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -4050,27 +4193,27 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.86" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="22.29" collapsed="false" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="50.14" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="10.0" collapsed="false" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="9.86" collapsed="false" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="10.12" collapsed="false" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="13.86" collapsed="false" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="19.99" collapsed="false" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="0" width="12.86" collapsed="false" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="0" width="19.99" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
+      <c r="A1" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="54"/>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -4081,10 +4224,10 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4095,10 +4238,10 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -4109,10 +4252,10 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -4123,10 +4266,10 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -4137,597 +4280,597 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76"/>
+      <c r="A7" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="77" t="n">
+      <c r="A8" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="78" t="n">
         <v>356188889</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
+      <c r="A9" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="79"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="76"/>
+      <c r="A10" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="80"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="76"/>
+      <c r="A11" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="77"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="I12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="J12" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="F13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="81" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
+      <c r="A14" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
     </row>
     <row r="15" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="84" t="n">
+      <c r="A15" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="84" t="n">
+      <c r="B15" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="85" t="n">
         <v>2500</v>
       </c>
-      <c r="E15" s="84" t="n">
+      <c r="E15" s="85" t="n">
         <v>600</v>
       </c>
-      <c r="F15" s="84" t="n">
+      <c r="F15" s="85" t="n">
         <v>810</v>
       </c>
-      <c r="G15" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="86" t="n">
+      <c r="G15" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="87" t="n">
         <v>3300000</v>
       </c>
-      <c r="I15" s="87" t="n">
+      <c r="I15" s="88" t="n">
         <f aca="false">D15/1000</f>
         <v>2.5</v>
       </c>
-      <c r="J15" s="88" t="n">
+      <c r="J15" s="89" t="n">
         <f aca="false">I15*H15</f>
         <v>8250000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="91"/>
-      <c r="J16" s="92" t="n">
+      <c r="A16" s="90"/>
+      <c r="B16" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="92"/>
+      <c r="J16" s="93" t="n">
         <f aca="false">SUM(J15)</f>
         <v>8250000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
+      <c r="A17" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
     </row>
     <row r="18" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="84" t="n">
+      <c r="A18" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="B18" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="84" t="n">
+      <c r="B18" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="85" t="n">
         <f aca="false">2500</f>
         <v>2500</v>
       </c>
-      <c r="E18" s="84" t="n">
+      <c r="E18" s="85" t="n">
         <v>600</v>
       </c>
-      <c r="F18" s="84" t="n">
+      <c r="F18" s="85" t="n">
         <v>8</v>
       </c>
-      <c r="G18" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="86" t="n">
+      <c r="G18" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="87" t="n">
         <v>850000</v>
       </c>
-      <c r="I18" s="87" t="n">
+      <c r="I18" s="88" t="n">
         <f aca="false">D18/1000</f>
         <v>2.5</v>
       </c>
-      <c r="J18" s="41" t="n">
+      <c r="J18" s="18" t="n">
         <f aca="false">I18*H18</f>
         <v>2125000</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="84" t="n">
+      <c r="A19" s="85" t="n">
         <v>2</v>
       </c>
-      <c r="B19" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="84" t="n">
+      <c r="B19" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="85" t="n">
         <v>2500</v>
       </c>
-      <c r="E19" s="84" t="n">
+      <c r="E19" s="85" t="n">
         <v>600</v>
       </c>
-      <c r="F19" s="84" t="n">
+      <c r="F19" s="85" t="n">
         <v>40</v>
       </c>
-      <c r="G19" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="86" t="n">
+      <c r="G19" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="87" t="n">
         <v>1350000</v>
       </c>
-      <c r="I19" s="87" t="n">
+      <c r="I19" s="88" t="n">
         <f aca="false">D19/1000</f>
         <v>2.5</v>
       </c>
-      <c r="J19" s="41" t="n">
+      <c r="J19" s="18" t="n">
         <f aca="false">I19*H19</f>
         <v>3375000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="84" t="n">
+      <c r="A20" s="85" t="n">
         <v>3</v>
       </c>
-      <c r="B20" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="94" t="n">
+      <c r="B20" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="95" t="n">
         <v>1800000</v>
       </c>
-      <c r="I20" s="95" t="n">
+      <c r="I20" s="96" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="96" t="n">
+      <c r="J20" s="97" t="n">
         <f aca="false">I20*H20</f>
         <v>1800000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="84" t="n">
+      <c r="A21" s="85" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="52" t="s">
+      <c r="B21" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="94" t="n">
+      <c r="C21" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="95" t="n">
         <v>1770000</v>
       </c>
-      <c r="I21" s="95" t="n">
+      <c r="I21" s="96" t="n">
         <v>1</v>
       </c>
-      <c r="J21" s="96" t="n">
+      <c r="J21" s="97" t="n">
         <f aca="false">I21*H21</f>
         <v>1770000</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="84" t="n">
+      <c r="A22" s="85" t="n">
         <v>5</v>
       </c>
-      <c r="B22" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="97" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="98" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="94" t="n">
+      <c r="B22" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="95" t="n">
         <v>1550000</v>
       </c>
-      <c r="I22" s="95" t="n">
+      <c r="I22" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="J22" s="99" t="n">
+      <c r="J22" s="100" t="n">
         <f aca="false">I22*H22</f>
         <v>3100000</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="84" t="n">
+      <c r="A23" s="85" t="n">
         <v>6</v>
       </c>
-      <c r="B23" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="98" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="94" t="n">
+      <c r="B23" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="95" t="n">
         <v>1770000</v>
       </c>
-      <c r="I23" s="95" t="n">
+      <c r="I23" s="96" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="99" t="n">
+      <c r="J23" s="100" t="n">
         <f aca="false">I23*H23</f>
         <v>1770000</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="84" t="n">
+      <c r="A24" s="85" t="n">
         <v>7</v>
       </c>
-      <c r="B24" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="86" t="n">
+      <c r="B24" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="87" t="n">
         <v>105000</v>
       </c>
-      <c r="I24" s="87" t="n">
+      <c r="I24" s="88" t="n">
         <v>6</v>
       </c>
-      <c r="J24" s="88" t="n">
+      <c r="J24" s="89" t="n">
         <f aca="false">I24*H24</f>
         <v>630000</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="84" t="n">
+      <c r="A25" s="85" t="n">
         <v>8</v>
       </c>
-      <c r="B25" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="100" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" s="86" t="n">
+      <c r="B25" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="87" t="n">
         <v>155000</v>
       </c>
-      <c r="I25" s="87" t="n">
+      <c r="I25" s="88" t="n">
         <v>4</v>
       </c>
-      <c r="J25" s="88" t="n">
+      <c r="J25" s="89" t="n">
         <f aca="false">I25*H25</f>
         <v>620000</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="84" t="n">
+      <c r="A26" s="85" t="n">
         <v>9</v>
       </c>
-      <c r="B26" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="100" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49" t="s">
+      <c r="B26" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="86" t="n">
+      <c r="C26" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="87" t="n">
         <v>49500</v>
       </c>
-      <c r="I26" s="87" t="n">
+      <c r="I26" s="88" t="n">
         <v>20</v>
       </c>
-      <c r="J26" s="88" t="n">
+      <c r="J26" s="89" t="n">
         <f aca="false">I26*H26</f>
         <v>990000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="84" t="n">
+      <c r="A27" s="85" t="n">
         <v>10</v>
       </c>
-      <c r="B27" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="86" t="n">
+      <c r="B27" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="87" t="n">
         <v>100000</v>
       </c>
-      <c r="I27" s="101" t="n">
+      <c r="I27" s="102" t="n">
         <v>10</v>
       </c>
-      <c r="J27" s="88" t="n">
+      <c r="J27" s="89" t="n">
         <f aca="false">I27*H27</f>
         <v>1000000</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="84" t="n">
+      <c r="A28" s="85" t="n">
         <v>11</v>
       </c>
-      <c r="B28" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="103" t="s">
+      <c r="B28" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="94" t="n">
+      <c r="C28" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="95" t="n">
         <v>275000</v>
       </c>
-      <c r="I28" s="101" t="n">
+      <c r="I28" s="102" t="n">
         <v>3</v>
       </c>
-      <c r="J28" s="88" t="n">
+      <c r="J28" s="89" t="n">
         <f aca="false">I28*H28</f>
         <v>825000</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="104"/>
-      <c r="B29" s="105" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="I29" s="91"/>
-      <c r="J29" s="106" t="n">
+      <c r="A29" s="105"/>
+      <c r="B29" s="106" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="92"/>
+      <c r="J29" s="107" t="n">
         <f aca="false">SUM(J18:J28)</f>
         <v>18005000</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="104"/>
-      <c r="B30" s="105" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="107" t="s">
-        <v>104</v>
-      </c>
-      <c r="I30" s="107"/>
-      <c r="J30" s="108" t="n">
+      <c r="A30" s="105"/>
+      <c r="B30" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" s="108"/>
+      <c r="J30" s="109" t="n">
         <f aca="false">J16+J29</f>
         <v>26255000</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="109" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
+      <c r="A31" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="110"/>
@@ -4739,7 +4882,7 @@
       <c r="G32" s="110"/>
       <c r="H32" s="111"/>
       <c r="I32" s="110"/>
-      <c r="J32" s="33"/>
+      <c r="J32" s="51"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="110"/>
@@ -4751,7 +4894,7 @@
       <c r="G33" s="110"/>
       <c r="H33" s="111"/>
       <c r="I33" s="110"/>
-      <c r="J33" s="33"/>
+      <c r="J33" s="51"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="110"/>
@@ -4763,7 +4906,7 @@
       <c r="G34" s="110"/>
       <c r="H34" s="111"/>
       <c r="I34" s="110"/>
-      <c r="J34" s="33"/>
+      <c r="J34" s="51"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="110"/>
@@ -4775,7 +4918,7 @@
       <c r="G35" s="110"/>
       <c r="H35" s="111"/>
       <c r="I35" s="110"/>
-      <c r="J35" s="33"/>
+      <c r="J35" s="51"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="110"/>
@@ -4787,7 +4930,7 @@
       <c r="G36" s="110"/>
       <c r="H36" s="111"/>
       <c r="I36" s="110"/>
-      <c r="J36" s="33"/>
+      <c r="J36" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="30">
